--- a/Output/Пароварки ВСТР.xlsx
+++ b/Output/Пароварки ВСТР.xlsx
@@ -831,8 +831,12 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" t="s"/>
-      <c r="H6" t="s"/>
+      <c r="G6" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" t="s">
+        <v>26</v>
+      </c>
       <c r="I6" t="s"/>
       <c r="J6" t="s"/>
       <c r="K6" t="s"/>
@@ -925,8 +929,12 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" t="s"/>
-      <c r="H8" t="s"/>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" t="s">
+        <v>26</v>
+      </c>
       <c r="I8" t="s"/>
       <c r="J8" t="s"/>
       <c r="K8" t="s"/>
